--- a/Test_plan.xlsx
+++ b/Test_plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Test Cases</t>
   </si>
@@ -93,14 +93,14 @@
     <t>Automated</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +123,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +144,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -145,21 +159,181 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -441,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A2:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,200 +628,233 @@
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="D12" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
